--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1634,13 +1634,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D32F76-ACD9-481E-8B82-571F501C3B28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEFB8758-A286-4041-905C-62D64352A5CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CA1EB2-B9A2-433E-91A8-F477E971C20B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE199498-2740-4CC6-A963-C694668EDC15}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA3FD1D7-93C4-4737-8A27-2A0BCE656154}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3929E9FF-63BE-446D-BE12-20A86854A14F}"/>
 </file>